--- a/pain.xls.xlsx
+++ b/pain.xls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC_110\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC_110\PROJECT\Gitwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C320B-4F8B-49D9-871D-67F7B854694F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C1048-DAE7-48B0-8740-AA5A085F6E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A50DFB39-51EC-4047-A344-5FA980BE6BA6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
   <si>
     <t>Presentation Layer</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Forgot password? (onclick)</t>
   </si>
   <si>
-    <t>Reset password UI</t>
-  </si>
-  <si>
     <t>String id</t>
   </si>
   <si>
@@ -189,18 +186,12 @@
     <t>Set new password</t>
   </si>
   <si>
-    <t>String pswd</t>
-  </si>
-  <si>
     <t>Navigate to users search page</t>
   </si>
   <si>
     <t>setnewpasswd</t>
   </si>
   <si>
-    <t>String passwd</t>
-  </si>
-  <si>
     <t>update password for user</t>
   </si>
   <si>
@@ -445,6 +436,12 @@
   </si>
   <si>
     <t>Sell equipments</t>
+  </si>
+  <si>
+    <t>Reset password UI (check OTP button)</t>
+  </si>
+  <si>
+    <t>String id, passwd</t>
   </si>
 </sst>
 </file>
@@ -820,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C6502-75B4-4910-B4B5-5336D6DC9D6D}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,28 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
       </c>
       <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
         <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1045,31 +1045,31 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
         <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1077,31 +1077,31 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1109,10 +1109,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1120,10 +1120,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1131,10 +1131,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1142,31 +1142,31 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1174,15 +1174,15 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1231,31 +1231,31 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="J29" t="s">
         <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1263,31 +1263,31 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1295,28 +1295,28 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>88</v>
       </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
         <v>89</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1324,10 +1324,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1335,31 +1335,31 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
         <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1367,31 +1367,31 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
         <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -1399,31 +1399,31 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
         <v>111</v>
       </c>
-      <c r="E35" t="s">
+      <c r="I35" t="s">
         <v>112</v>
       </c>
-      <c r="F35" t="s">
+      <c r="J35" t="s">
         <v>113</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1442,31 +1442,31 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -1474,36 +1474,36 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" t="s">
         <v>128</v>
       </c>
-      <c r="F38" t="s">
+      <c r="J38" t="s">
         <v>129</v>
-      </c>
-      <c r="G38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" t="s">
-        <v>131</v>
-      </c>
-      <c r="J38" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1592,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
